--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col18a1-Gpc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col18a1-Gpc4.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>10.92859066666667</v>
+        <v>0.5586043333333334</v>
       </c>
       <c r="H2">
-        <v>32.785772</v>
+        <v>1.675813</v>
       </c>
       <c r="I2">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="J2">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.767882</v>
+        <v>5.333065333333334</v>
       </c>
       <c r="N2">
-        <v>26.303646</v>
+        <v>15.999196</v>
       </c>
       <c r="O2">
-        <v>0.2073466531282027</v>
+        <v>0.1422335064894009</v>
       </c>
       <c r="P2">
-        <v>0.2073466531282026</v>
+        <v>0.1422335064894009</v>
       </c>
       <c r="Q2">
-        <v>95.82059339163467</v>
+        <v>2.979073405149778</v>
       </c>
       <c r="R2">
-        <v>862.3853405247121</v>
+        <v>26.811660646348</v>
       </c>
       <c r="S2">
-        <v>0.04531682341782218</v>
+        <v>0.002337417779094036</v>
       </c>
       <c r="T2">
-        <v>0.04531682341782217</v>
+        <v>0.002337417779094036</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>10.92859066666667</v>
+        <v>0.5586043333333334</v>
       </c>
       <c r="H3">
-        <v>32.785772</v>
+        <v>1.675813</v>
       </c>
       <c r="I3">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="J3">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.88867166666666</v>
+        <v>20.88867166666667</v>
       </c>
       <c r="N3">
-        <v>62.66601499999999</v>
+        <v>62.666015</v>
       </c>
       <c r="O3">
-        <v>0.4939843121037951</v>
+        <v>0.5571034351455781</v>
       </c>
       <c r="P3">
-        <v>0.4939843121037951</v>
+        <v>0.5571034351455783</v>
       </c>
       <c r="Q3">
-        <v>228.2837422153978</v>
+        <v>11.66850251057722</v>
       </c>
       <c r="R3">
-        <v>2054.55367993858</v>
+        <v>105.016522595195</v>
       </c>
       <c r="S3">
-        <v>0.1079631597860462</v>
+        <v>0.009155251151743721</v>
       </c>
       <c r="T3">
-        <v>0.1079631597860462</v>
+        <v>0.009155251151743721</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>10.92859066666667</v>
+        <v>0.5586043333333334</v>
       </c>
       <c r="H4">
-        <v>32.785772</v>
+        <v>1.675813</v>
       </c>
       <c r="I4">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="J4">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.62954966666667</v>
+        <v>11.27340366666667</v>
       </c>
       <c r="N4">
-        <v>37.888649</v>
+        <v>33.820211</v>
       </c>
       <c r="O4">
-        <v>0.2986690347680022</v>
+        <v>0.3006630583650208</v>
       </c>
       <c r="P4">
-        <v>0.2986690347680022</v>
+        <v>0.3006630583650208</v>
       </c>
       <c r="Q4">
-        <v>138.0231786113364</v>
+        <v>6.29737213961589</v>
       </c>
       <c r="R4">
-        <v>1242.208607502028</v>
+        <v>56.676349256543</v>
       </c>
       <c r="S4">
-        <v>0.06527586389631478</v>
+        <v>0.004940995940302981</v>
       </c>
       <c r="T4">
-        <v>0.06527586389631478</v>
+        <v>0.00494099594030298</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>21.275312</v>
       </c>
       <c r="H5">
-        <v>63.82593600000001</v>
+        <v>63.825936</v>
       </c>
       <c r="I5">
-        <v>0.4254751576214853</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="J5">
-        <v>0.4254751576214852</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.767882</v>
+        <v>5.333065333333334</v>
       </c>
       <c r="N5">
-        <v>26.303646</v>
+        <v>15.999196</v>
       </c>
       <c r="O5">
-        <v>0.2073466531282027</v>
+        <v>0.1422335064894009</v>
       </c>
       <c r="P5">
-        <v>0.2073466531282026</v>
+        <v>0.1422335064894009</v>
       </c>
       <c r="Q5">
-        <v>186.539425129184</v>
+        <v>113.4626288830507</v>
       </c>
       <c r="R5">
-        <v>1678.854826162656</v>
+        <v>1021.163659947456</v>
       </c>
       <c r="S5">
-        <v>0.08822084992200947</v>
+        <v>0.08902417965114132</v>
       </c>
       <c r="T5">
-        <v>0.08822084992200943</v>
+        <v>0.08902417965114132</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>21.275312</v>
       </c>
       <c r="H6">
-        <v>63.82593600000001</v>
+        <v>63.825936</v>
       </c>
       <c r="I6">
-        <v>0.4254751576214853</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="J6">
-        <v>0.4254751576214852</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.88867166666666</v>
+        <v>20.88867166666667</v>
       </c>
       <c r="N6">
-        <v>62.66601499999999</v>
+        <v>62.666015</v>
       </c>
       <c r="O6">
-        <v>0.4939843121037951</v>
+        <v>0.5571034351455781</v>
       </c>
       <c r="P6">
-        <v>0.4939843121037951</v>
+        <v>0.5571034351455783</v>
       </c>
       <c r="Q6">
         <v>444.4130069738933</v>
@@ -818,10 +818,10 @@
         <v>3999.71706276504</v>
       </c>
       <c r="S6">
-        <v>0.2101780530549032</v>
+        <v>0.3486919328559457</v>
       </c>
       <c r="T6">
-        <v>0.2101780530549032</v>
+        <v>0.3486919328559458</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>21.275312</v>
       </c>
       <c r="H7">
-        <v>63.82593600000001</v>
+        <v>63.825936</v>
       </c>
       <c r="I7">
-        <v>0.4254751576214853</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="J7">
-        <v>0.4254751576214852</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.62954966666667</v>
+        <v>11.27340366666667</v>
       </c>
       <c r="N7">
-        <v>37.888649</v>
+        <v>33.820211</v>
       </c>
       <c r="O7">
-        <v>0.2986690347680022</v>
+        <v>0.3006630583650208</v>
       </c>
       <c r="P7">
-        <v>0.2986690347680022</v>
+        <v>0.3006630583650208</v>
       </c>
       <c r="Q7">
-        <v>268.6976095778294</v>
+        <v>239.8451803102773</v>
       </c>
       <c r="R7">
-        <v>2418.278486200464</v>
+        <v>2158.606622792496</v>
       </c>
       <c r="S7">
-        <v>0.1270762546445726</v>
+        <v>0.1881854900648448</v>
       </c>
       <c r="T7">
-        <v>0.1270762546445726</v>
+        <v>0.1881854900648448</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.79975</v>
+        <v>12.157548</v>
       </c>
       <c r="H8">
-        <v>53.39924999999999</v>
+        <v>36.472644</v>
       </c>
       <c r="I8">
-        <v>0.3559689952783316</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="J8">
-        <v>0.3559689952783315</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.767882</v>
+        <v>5.333065333333334</v>
       </c>
       <c r="N8">
-        <v>26.303646</v>
+        <v>15.999196</v>
       </c>
       <c r="O8">
-        <v>0.2073466531282027</v>
+        <v>0.1422335064894009</v>
       </c>
       <c r="P8">
-        <v>0.2073466531282026</v>
+        <v>0.1422335064894009</v>
       </c>
       <c r="Q8">
-        <v>156.0661076295</v>
+        <v>64.83699777713601</v>
       </c>
       <c r="R8">
-        <v>1404.5949686655</v>
+        <v>583.5329799942241</v>
       </c>
       <c r="S8">
-        <v>0.07380897978837103</v>
+        <v>0.05087190905916557</v>
       </c>
       <c r="T8">
-        <v>0.073808979788371</v>
+        <v>0.05087190905916557</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.79975</v>
+        <v>12.157548</v>
       </c>
       <c r="H9">
-        <v>53.39924999999999</v>
+        <v>36.472644</v>
       </c>
       <c r="I9">
-        <v>0.3559689952783316</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="J9">
-        <v>0.3559689952783315</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.88867166666666</v>
+        <v>20.88867166666667</v>
       </c>
       <c r="N9">
-        <v>62.66601499999999</v>
+        <v>62.666015</v>
       </c>
       <c r="O9">
-        <v>0.4939843121037951</v>
+        <v>0.5571034351455781</v>
       </c>
       <c r="P9">
-        <v>0.4939843121037951</v>
+        <v>0.5571034351455783</v>
       </c>
       <c r="Q9">
-        <v>371.8131334987499</v>
+        <v>253.95502844374</v>
       </c>
       <c r="R9">
-        <v>3346.318201488749</v>
+        <v>2285.59525599366</v>
       </c>
       <c r="S9">
-        <v>0.1758430992628457</v>
+        <v>0.1992562511378887</v>
       </c>
       <c r="T9">
-        <v>0.1758430992628457</v>
+        <v>0.1992562511378888</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.79975</v>
+        <v>12.157548</v>
       </c>
       <c r="H10">
-        <v>53.39924999999999</v>
+        <v>36.472644</v>
       </c>
       <c r="I10">
-        <v>0.3559689952783316</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="J10">
-        <v>0.3559689952783315</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.62954966666667</v>
+        <v>11.27340366666667</v>
       </c>
       <c r="N10">
-        <v>37.888649</v>
+        <v>33.820211</v>
       </c>
       <c r="O10">
-        <v>0.2986690347680022</v>
+        <v>0.3006630583650208</v>
       </c>
       <c r="P10">
-        <v>0.2986690347680022</v>
+        <v>0.3006630583650208</v>
       </c>
       <c r="Q10">
-        <v>224.80282667925</v>
+        <v>137.056946200876</v>
       </c>
       <c r="R10">
-        <v>2023.22544011325</v>
+        <v>1233.512515807884</v>
       </c>
       <c r="S10">
-        <v>0.1063169162271148</v>
+        <v>0.107536572359873</v>
       </c>
       <c r="T10">
-        <v>0.1063169162271148</v>
+        <v>0.107536572359873</v>
       </c>
     </row>
   </sheetData>
